--- a/statistics/HistoricalDistanceData/historical_distance/Q309578-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q309578-en.xlsx
@@ -31,42 +31,42 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Stampede at German Love Parade festival kills 19</t>
+  </si>
+  <si>
+    <t>Crowd Disasters as Systemic Failures: Analysis of the Love Parade Disaster</t>
+  </si>
+  <si>
+    <t>Love Parade tragedy: 'I'll never forget the sight of all those twisted</t>
+  </si>
+  <si>
     <t>Australian killed in German music festival stampede</t>
   </si>
   <si>
-    <t>Love Parade tragedy: 'I'll never forget the sight of all those twisted</t>
-  </si>
-  <si>
-    <t>Crowd Disasters as Systemic Failures: Analysis of the Love Parade Disaster</t>
-  </si>
-  <si>
-    <t>Stampede at German Love Parade festival kills 19</t>
+    <t>The Love Parade: European Techno, The EDM Festival, and The Tragedy in Duisburg</t>
+  </si>
+  <si>
+    <t>Nineteen Dead In German Festival Horror</t>
+  </si>
+  <si>
+    <t>Loveparade: RUHR.2010</t>
   </si>
   <si>
     <t>18 killed amid panic at Germany's 'Love Parade'</t>
   </si>
   <si>
-    <t>Nineteen Dead In German Festival Horror</t>
-  </si>
-  <si>
-    <t>The Love Parade: European Techno, The EDM Festival, and The Tragedy in Duisburg</t>
-  </si>
-  <si>
-    <t>Loveparade: RUHR.2010</t>
+    <t>2010-07-25T05:43:15UTC</t>
+  </si>
+  <si>
+    <t>2012-06-06T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2010-07-25T00:00:00UTC</t>
   </si>
   <si>
     <t>2010-07-25T18:14:00UTC</t>
   </si>
   <si>
-    <t>2010-07-25T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2012-06-06T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2010-07-25T05:43:15UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -82,28 +82,28 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.bbc.co.uk/news/world-europe-10751899</t>
+  </si>
+  <si>
+    <t>https://ui.adsabs.harvard.edu/abs/2012arXiv1206.5856H</t>
+  </si>
+  <si>
+    <t>https://www.independent.co.uk/news/world/europe/love-parade-tragedy-ill-never-forget-the-sight-of-all-those-twisted-bodies-2035410.html</t>
+  </si>
+  <si>
     <t>http://www.abc.net.au/news/stories/2010/07/25/2963606.htm</t>
   </si>
   <si>
-    <t>https://www.independent.co.uk/news/world/europe/love-parade-tragedy-ill-never-forget-the-sight-of-all-those-twisted-bodies-2035410.html</t>
-  </si>
-  <si>
-    <t>https://ui.adsabs.harvard.edu/abs/2012arXiv1206.5856H</t>
-  </si>
-  <si>
-    <t>https://www.bbc.co.uk/news/world-europe-10751899</t>
+    <t>https://www.academia.edu/12893380/The_Love_Parade_European_Techno_The_EDM_Festival_and_The_Tragedy_in_Duisburg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20100730040807/http://uk.news.yahoo.com/5/20100725/twl-nineteen-dead-in-german-festival-hor-3fd0ae9.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20100730030559/http://www.essen-fuer-das-ruhrgebiet.ruhr2010.de/en/programme/a-time-to-celebrate/loveparade.html</t>
   </si>
   <si>
     <t>http://edition.cnn.com/2010/WORLD/europe/07/24/germany.panic.deaths/index.html?hpt=T2#fbid=UFNfp6AHpEJ</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20100730040807/http://uk.news.yahoo.com/5/20100725/twl-nineteen-dead-in-german-festival-hor-3fd0ae9.html</t>
-  </si>
-  <si>
-    <t>https://www.academia.edu/12893380/The_Love_Parade_European_Techno_The_EDM_Festival_and_The_Tragedy_in_Duisburg</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20100730030559/http://www.essen-fuer-das-ruhrgebiet.ruhr2010.de/en/programme/a-time-to-celebrate/loveparade.html</t>
   </si>
 </sst>
 </file>
@@ -522,10 +522,10 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>683</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -539,10 +539,10 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>683</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -639,10 +639,10 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5" location="fbid=UFNfp6AHpEJ"/>
+    <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId8" location="fbid=UFNfp6AHpEJ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
